--- a/state_population.xlsx
+++ b/state_population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KARTIKYE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF30ACC1-61AE-4969-AF95-FE323FCFD8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056C7E97-EE4B-45E3-AEFD-34633377A042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,10 +317,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +539,7 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -551,7 +550,7 @@
     <col min="4" max="4" width="32.625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
     <col min="8" max="8" width="27.375" customWidth="1"/>
     <col min="9" max="9" width="24.375" customWidth="1"/>
     <col min="10" max="10" width="21.875" customWidth="1"/>
@@ -561,7 +560,7 @@
     <col min="14" max="14" width="27.875" customWidth="1"/>
     <col min="15" max="15" width="26.75" customWidth="1"/>
     <col min="16" max="17" width="8.75" customWidth="1"/>
-    <col min="18" max="26" width="14.375" customWidth="1"/>
+    <col min="18" max="23" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -573,10 +572,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1">
@@ -673,41 +672,41 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
+        <v>86200000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43200000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43000000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>76210007</v>
+      </c>
+      <c r="H4" s="2">
+        <v>38286758</v>
+      </c>
+      <c r="I4" s="2">
+        <v>37923249</v>
+      </c>
+      <c r="J4" s="2">
+        <v>66508008</v>
+      </c>
+      <c r="K4" s="2">
+        <v>33254004</v>
+      </c>
+      <c r="L4" s="2">
+        <v>33254004</v>
+      </c>
+      <c r="M4" s="2">
         <v>55279942</v>
       </c>
-      <c r="E4" s="3">
+      <c r="N4" s="2">
         <v>27678972</v>
       </c>
-      <c r="F4" s="3">
+      <c r="O4" s="2">
         <v>27600970</v>
-      </c>
-      <c r="G4" s="3">
-        <v>86200000</v>
-      </c>
-      <c r="H4" s="3">
-        <v>43200000</v>
-      </c>
-      <c r="I4" s="3">
-        <v>43000000</v>
-      </c>
-      <c r="J4" s="3">
-        <v>76210007</v>
-      </c>
-      <c r="K4" s="3">
-        <v>38286758</v>
-      </c>
-      <c r="L4" s="3">
-        <v>37923249</v>
-      </c>
-      <c r="M4" s="3">
-        <v>66508008</v>
-      </c>
-      <c r="N4" s="3">
-        <v>33254004</v>
-      </c>
-      <c r="O4" s="3">
-        <v>33254004</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -720,40 +719,40 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1551594</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>800224</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>751370</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1450000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>750000</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>700000</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>1097968</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>579941</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>518027</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>885690</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>442845</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>442845</v>
       </c>
     </row>
@@ -767,40 +766,40 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>35012186</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>17882778</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>17129408</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>31700000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>16200000</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>15500000</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>26655528</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>13777037</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>12878491</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>22414322</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>11207161</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>11207161</v>
       </c>
     </row>
@@ -814,40 +813,40 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>116372803</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>60970590</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>55402213</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>106000000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>55000000</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>51000000</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>82998509</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>43153964</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>39844545</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>86370128</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>43185064</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>43185064</v>
       </c>
     </row>
@@ -861,31 +860,31 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>28673914</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>14406192</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>14267722</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>25800000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>13000000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>12800000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>20833803</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>10474218</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>10359585</v>
       </c>
       <c r="M8" s="1">
@@ -908,40 +907,40 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1635839</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>828978</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>806861</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1480000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>750000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>730000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>1347668</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>687248</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>660420</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>1213928</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>606964</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>606964</v>
       </c>
     </row>
@@ -955,40 +954,40 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>67603150</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>35230326</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>32372824</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>62000000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>32000000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>30000000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>50671017</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>26385577</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>24285440</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>41309582</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>20654791</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>20654791</v>
       </c>
     </row>
@@ -1002,40 +1001,40 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>28459406</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>15137708</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>13321698</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>25800000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>13800000</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>12000000</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>21144564</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>11355442</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>9789122</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>16976108</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>8488054</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>8488054</v>
       </c>
     </row>
@@ -1049,40 +1048,40 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>7703713</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>3906723</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>3796990</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>6900000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>3500000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>3400000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>6077248</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>3085256</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>2991992</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>5249692</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <v>2624846</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>2624846</v>
       </c>
     </row>
@@ -1096,40 +1095,40 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>14078530</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>7455346</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>6623184</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>12700000</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>6700000</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>6000000</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>10143700</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>5360926</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>4782774</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>7959926</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>3979963</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>3979963</v>
       </c>
     </row>
@@ -1143,31 +1142,31 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>37021939</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>19006177</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>18015762</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>33000000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>17000000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>16000000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>26945829</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>13885037</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>13060792</v>
       </c>
       <c r="M14" s="1">
@@ -1190,40 +1189,40 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>68324980</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>34747715</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>33577265</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>61500000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>31500000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>30000000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>52850562</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>26898918</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>25951644</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>44977200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>22488600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>22488600</v>
       </c>
     </row>
@@ -1237,40 +1236,40 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>37468948</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>17987984</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>19480964</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>33700000</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>16200000</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>17500000</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>31841374</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>15468614</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>16372760</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>29846792</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>14923396</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <v>14923396</v>
       </c>
     </row>
@@ -1284,40 +1283,40 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>81143249</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>42000935</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>39142314</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>73500000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>38000000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>35500000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>60348023</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>31443652</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>28904371</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>61712226</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>30856113</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <v>30856113</v>
       </c>
     </row>
@@ -1331,40 +1330,40 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>125554307</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>65418748</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>60135559</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>114000000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>59000000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>55000000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>96878627</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>50400596</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>46478031</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>81864918</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>40932459</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>40932459</v>
       </c>
     </row>
@@ -1378,40 +1377,40 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>3054214</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>1520407</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>1533807</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>2880000</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>1450000</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>1430000</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>2293896</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>1161952</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>1131944</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>1857796</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>928898</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <v>928898</v>
       </c>
     </row>
@@ -1425,40 +1424,40 @@
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>3329466</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>1675876</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>1653590</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>2980000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>1500000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>1480000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>2318822</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>1176087</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <v>1142735</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>1721948</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>860974</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <v>860974</v>
       </c>
     </row>
@@ -1472,40 +1471,40 @@
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>1229596</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>622300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>607296</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>1100000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>560000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>540000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>888573</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>459109</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>429464</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>693404</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <v>346702</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>346702</v>
       </c>
     </row>
@@ -1519,40 +1518,40 @@
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>2219673</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>1150859</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>1068814</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>1980000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>1030000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>950000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>1990036</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>1047141</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>942895</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>1570186</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <v>785093</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <v>785093</v>
       </c>
     </row>
@@ -1566,40 +1565,40 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>47044051</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>23780695</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>23263356</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>42500000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>21500000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>21000000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>36804660</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>18790971</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>18013689</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>31643344</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <v>15821672</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <v>15821672</v>
       </c>
     </row>
@@ -1613,40 +1612,40 @@
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>31152679</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>16438373</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>14714306</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>28300000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>14800000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>13500000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>24358999</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>12981750</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>11377249</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>21138818</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="2">
         <v>10569409</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>10569409</v>
       </c>
     </row>
@@ -1660,40 +1659,40 @@
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>76648243</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>39771114</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>36877129</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>69000000</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>36000000</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>33000000</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>56507188</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>29381657</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <v>27125531</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <v>49763198</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="2">
         <v>24881599</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="2">
         <v>24881599</v>
       </c>
     </row>
@@ -1707,40 +1706,40 @@
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>684198</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>362492</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>321706</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>615000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>325000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>290000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>540851</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>288484</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <v>252367</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="2">
         <v>422170</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="2">
         <v>211085</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="2">
         <v>211085</v>
       </c>
     </row>
@@ -1754,40 +1753,40 @@
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>80658073</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>40378181</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>40279892</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>72500000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>36500000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>36000000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>62405679</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>31400909</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <v>31004770</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <v>57864238</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <v>28932119</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
         <v>28932119</v>
       </c>
     </row>
@@ -1801,22 +1800,22 @@
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>39246545</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>19749981</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>19496564</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>35300000</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>17800000</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>17500000</v>
       </c>
       <c r="J28" s="1">
@@ -1848,40 +1847,40 @@
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>4124149</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>2103544</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>2020605</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>3700000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>1900000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>1800000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>3191168</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>1634819</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <v>1556349</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="2">
         <v>2277610</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="2">
         <v>1138805</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="2">
         <v>1138805</v>
       </c>
     </row>
@@ -1895,40 +1894,40 @@
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>223235843</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>116788383</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>106447460</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>202000000</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>106000000</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>96000000</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>166197921</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>87466301</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <v>78731620</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="2">
         <v>143765832</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="2">
         <v>71882916</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="2">
         <v>71882916</v>
       </c>
     </row>
@@ -1942,31 +1941,31 @@
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>11314951</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>5781045</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>5533906</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>10100000</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>5200000</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>4900000</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>8489349</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>4325924</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <v>4163425</v>
       </c>
       <c r="M31" s="1">
@@ -1989,40 +1988,40 @@
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>102058923</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>52125442</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>49933481</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>92000000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>47000000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>45000000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>80176197</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>41465985</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <v>38710212</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="2">
         <v>68077964</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="2">
         <v>34038982</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="2">
         <v>34038982</v>
       </c>
     </row>
@@ -2036,40 +2035,40 @@
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>426454</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>227679</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>198775</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>178100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>380500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>202400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>356152</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>192053</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <v>164099</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <v>280661</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="2">
         <v>152891</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="2">
         <v>127770</v>
       </c>
     </row>
@@ -2083,40 +2082,40 @@
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>1181789</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>649798</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>531991</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>1070000</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>590000</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>480000</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>900635</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>507114</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <v>393521</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
         <v>642016</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="2">
         <v>321008</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="2">
         <v>321008</v>
       </c>
     </row>
@@ -2130,40 +2129,40 @@
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>384936</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>217524</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>167412</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>347000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>195000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>152000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>220490</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>121666</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <v>98824</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <v>142906</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="2">
         <v>71453</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="2">
         <v>71453</v>
       </c>
     </row>
@@ -2177,40 +2176,40 @@
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>272030</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>168482</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>103548</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>244000</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>152000</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>92000</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>158204</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>92480</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <v>65724</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <v>120560</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="2">
         <v>60280</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="2">
         <v>60280</v>
       </c>
     </row>
@@ -2224,40 +2223,40 @@
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>18842953</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>10084822</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>8758131</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>16800000</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>9000000</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>7800000</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>13850507</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>7607234</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <v>6243273</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="2">
         <v>9420644</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="2">
         <v>4710322</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="2">
         <v>4710322</v>
       </c>
     </row>
@@ -2271,40 +2270,40 @@
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>72228</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>37098</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>35130</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>66000</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>34000</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <v>32000</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>60650</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>31131</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>29519</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <v>51706</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="2">
         <v>25853</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="2">
         <v>25853</v>
       </c>
     </row>
@@ -2318,40 +2317,40 @@
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>1397437</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>684901</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>712536</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>1260000</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>620000</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>640000</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>974345</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>486961</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <v>487384</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <v>826960</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="2">
         <v>413480</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="2">
         <v>413480</v>
       </c>
     </row>
@@ -3322,6 +3321,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>